--- a/CyberRouterATE/bin/Debug/testCondition/FwStress/FwStressSteps.xlsx
+++ b/CyberRouterATE/bin/Debug/testCondition/FwStress/FwStressSteps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="615" windowWidth="10275" windowHeight="7395"/>
+    <workbookView xWindow="10248" yWindow="672" windowWidth="10272" windowHeight="7332"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Index</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -126,6 +126,14 @@
   </si>
   <si>
     <t>Action::DefaultLogin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logout</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action::Logout</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -536,20 +544,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="31.375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -563,7 +571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2" si="0" xml:space="preserve"> IF(AND(B2&lt;&gt;"",D2&lt;&gt;"",C2&lt;&gt;""),ROW(A2),"")</f>
         <v/>
@@ -577,7 +585,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -591,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" ref="A6" si="1" xml:space="preserve"> IF(AND(B6&lt;&gt;"",D6&lt;&gt;"",C6&lt;&gt;""),ROW(A6),"")</f>
         <v/>
@@ -605,7 +613,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
@@ -619,7 +627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -633,7 +641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>13</v>
       </c>
@@ -647,7 +655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -661,7 +669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>15</v>
       </c>
@@ -675,112 +683,140 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>16</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="str">
-        <f t="shared" ref="A15" si="2" xml:space="preserve"> IF(AND(B15&lt;&gt;"",D15&lt;&gt;"",C15&lt;&gt;""),ROW(A15),"")</f>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="str">
+        <f t="shared" ref="A16" si="2" xml:space="preserve"> IF(AND(B16&lt;&gt;"",D16&lt;&gt;"",C16&lt;&gt;""),ROW(A16),"")</f>
         <v/>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>21</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>22</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>23</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>25</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -798,7 +834,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CyberRouterATE/bin/Debug/testCondition/FwStress/FwStressSteps.xlsx
+++ b/CyberRouterATE/bin/Debug/testCondition/FwStress/FwStressSteps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10248" yWindow="672" windowWidth="10272" windowHeight="7332"/>
+    <workbookView xWindow="10248" yWindow="732" windowWidth="10272" windowHeight="7272"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/CyberRouterATE/bin/Debug/testCondition/FwStress/FwStressSteps.xlsx
+++ b/CyberRouterATE/bin/Debug/testCondition/FwStress/FwStressSteps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10248" yWindow="732" windowWidth="10272" windowHeight="7272"/>
+    <workbookView xWindow="10245" yWindow="720" windowWidth="10275" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -547,17 +547,17 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="4" max="4" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -571,7 +571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2" si="0" xml:space="preserve"> IF(AND(B2&lt;&gt;"",D2&lt;&gt;"",C2&lt;&gt;""),ROW(A2),"")</f>
         <v/>
@@ -585,7 +585,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -599,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f t="shared" ref="A6" si="1" xml:space="preserve"> IF(AND(B6&lt;&gt;"",D6&lt;&gt;"",C6&lt;&gt;""),ROW(A6),"")</f>
         <v/>
@@ -613,7 +613,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -627,7 +627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -655,7 +655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>14</v>
       </c>
@@ -669,7 +669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15</v>
       </c>
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>16</v>
       </c>
@@ -697,7 +697,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,10 +708,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f t="shared" ref="A16" si="2" xml:space="preserve"> IF(AND(B16&lt;&gt;"",D16&lt;&gt;"",C16&lt;&gt;""),ROW(A16),"")</f>
         <v/>
@@ -725,7 +725,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21</v>
       </c>
@@ -739,7 +739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>22</v>
       </c>
@@ -753,7 +753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>23</v>
       </c>
@@ -767,7 +767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>24</v>
       </c>
@@ -781,7 +781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>25</v>
       </c>
@@ -795,7 +795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>26</v>
       </c>
@@ -809,7 +809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
@@ -834,7 +834,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
